--- a/bmdb Tables.xlsx
+++ b/bmdb Tables.xlsx
@@ -735,25 +735,25 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="3">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" s="3">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" s="3">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="3">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -764,25 +764,25 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" s="3">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="3">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" s="3">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" s="3">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -793,25 +793,25 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" s="3">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G11" s="3">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H11" s="3">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="I11" s="3">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="J11" s="3">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
